--- a/ClassMaterial/20210219_GA_生產排程案例/JSP_dataset.xlsx
+++ b/ClassMaterial/20210219_GA_生產排程案例/JSP_dataset.xlsx
@@ -2,24 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AI\POC\ClassMaterial\20210219_GA_生產排程案例\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
     <sheet name="Processing Time" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">工作表1!$O$1:$U$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'工作表1 (2)'!$O$1:$U$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="81">
   <si>
     <t>O1</t>
   </si>
@@ -114,6 +119,168 @@
     <t>第幾道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>列標籤</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
+  <si>
+    <t>計數 - 第幾道</t>
+  </si>
+  <si>
+    <t>3 processTime: 81 machine 2</t>
+  </si>
+  <si>
+    <t>4 processTime: 14 machine 3</t>
+  </si>
+  <si>
+    <t>1 processTime: 43 machine 1</t>
+  </si>
+  <si>
+    <t>8 processTime: 76 machine 1</t>
+  </si>
+  <si>
+    <t>7 processTime: 31 machine 3</t>
+  </si>
+  <si>
+    <t>0 processTime: 29 machine 1</t>
+  </si>
+  <si>
+    <t>0 processTime: 78 machine 2</t>
+  </si>
+  <si>
+    <t>2 processTime: 91 machine 2</t>
+  </si>
+  <si>
+    <t>0 processTime: 9 machine 3</t>
+  </si>
+  <si>
+    <t>8 processTime: 69 machine 2</t>
+  </si>
+  <si>
+    <t>2 processTime: 85 machine 1</t>
+  </si>
+  <si>
+    <t>7 processTime: 86 machine 1</t>
+  </si>
+  <si>
+    <t>5 processTime: 84 machine 3</t>
+  </si>
+  <si>
+    <t>2 processTime: 39 machine 4</t>
+  </si>
+  <si>
+    <t>0 processTime: 36 machine 4</t>
+  </si>
+  <si>
+    <t>3 processTime: 95 machine 3</t>
+  </si>
+  <si>
+    <t>8 processTime: 76 machine 4</t>
+  </si>
+  <si>
+    <t>8 processTime: 51 machine 6</t>
+  </si>
+  <si>
+    <t>0 processTime: 49 machine 5</t>
+  </si>
+  <si>
+    <t>5 processTime: 2 machine 2</t>
+  </si>
+  <si>
+    <t>1 processTime: 90 machine 3</t>
+  </si>
+  <si>
+    <t>7 processTime: 46 machine 2</t>
+  </si>
+  <si>
+    <t>7 processTime: 74 machine 6</t>
+  </si>
+  <si>
+    <t>4 processTime: 6 machine 1</t>
+  </si>
+  <si>
+    <t>2 processTime: 74 machine 3</t>
+  </si>
+  <si>
+    <t>5 processTime: 52 machine 6</t>
+  </si>
+  <si>
+    <t>8 processTime: 85 machine 3</t>
+  </si>
+  <si>
+    <t>1 processTime: 75 machine 5</t>
+  </si>
+  <si>
+    <t>7 processTime: 32 machine 5</t>
+  </si>
+  <si>
+    <t>4 processTime: 22 machine 2</t>
+  </si>
+  <si>
+    <t>5 processTime: 95 machine 4</t>
+  </si>
+  <si>
+    <t>5 processTime: 48 machine 9</t>
+  </si>
+  <si>
+    <t>0 processTime: 11 machine 6</t>
+  </si>
+  <si>
+    <t>0 processTime: 62 machine 7</t>
+  </si>
+  <si>
+    <t>1 processTime: 11 machine 10</t>
+  </si>
+  <si>
+    <t>7 processTime: 88 machine 7</t>
+  </si>
+  <si>
+    <t>4 processTime: 61 machine 6</t>
+  </si>
+  <si>
+    <t>2 processTime: 90 machine 9</t>
+  </si>
+  <si>
+    <t>0 processTime: 56 machine 8</t>
+  </si>
+  <si>
+    <t>8 processTime: 11 machine 10</t>
+  </si>
+  <si>
+    <t>4 processTime: 26 machine 4</t>
+  </si>
+  <si>
+    <t>8 processTime: 40 machine 7</t>
+  </si>
+  <si>
+    <t>6 processTime: 46 machine 2</t>
+  </si>
+  <si>
+    <t>0 processTime: 44 machine 9</t>
+  </si>
+  <si>
+    <t>2 processTime: 10 machine 6</t>
+  </si>
+  <si>
+    <t>2 processTime: 12 machine 8</t>
+  </si>
+  <si>
+    <t>7 processTime: 19 machine 9</t>
+  </si>
+  <si>
+    <t>8 processTime: 89 machine 8</t>
+  </si>
+  <si>
+    <t>3 processTime: 71 machine 1</t>
+  </si>
+  <si>
+    <t>0 processTime: 21 machine 10</t>
+  </si>
 </sst>
 </file>
 
@@ -158,12 +325,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,6 +356,421 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INSTALL" refreshedDate="44251.438096874997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="P1:P1048576" sheet="工作表1 (2)"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="第幾道" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="11">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="101">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X2:Y14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="計數 - 第幾道" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4498,4 +5089,3860 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="12.75" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" hidden="1" customWidth="1"/>
+    <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE("J",N2+1)</f>
+        <v>J8</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF($O$1:O2,O2)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>COUNTIF(N:N,AD2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="0">CONCATENATE("J",N3+1)</f>
+        <v>J1</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIF($O$1:O3,O3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE30" si="1">COUNTIF(N:N,N3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P4">
+        <f>COUNTIF($O$1:O4,O4)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P5">
+        <f>COUNTIF($O$1:O5,O5)</f>
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P6">
+        <f>COUNTIF($O$1:O6,O6)</f>
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P7">
+        <f>COUNTIF($O$1:O7,O7)</f>
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF($O$1:O8,O8)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P9">
+        <f>COUNTIF($O$1:O9,O9)</f>
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIF($O$1:O10,O10)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF($O$1:O11,O11)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIF($O$1:O12,O12)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIF($O$1:O13,O13)</f>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13">
+        <v>52</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="AA13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P14">
+        <f>COUNTIF($O$1:O14,O14)</f>
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14">
+        <v>95</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>100</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIF($O$1:O15,O15)</f>
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P16">
+        <f>COUNTIF($O$1:O16,O16)</f>
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <v>90</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P17">
+        <f>COUNTIF($O$1:O17,O17)</f>
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P18">
+        <f>COUNTIF($O$1:O18,O18)</f>
+        <v>4</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P19">
+        <f>COUNTIF($O$1:O19,O19)</f>
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19">
+        <v>81</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44</v>
+      </c>
+      <c r="K20" s="1">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P20">
+        <f>COUNTIF($O$1:O20,O20)</f>
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1">
+        <v>46</v>
+      </c>
+      <c r="I21" s="1">
+        <v>46</v>
+      </c>
+      <c r="J21" s="1">
+        <v>72</v>
+      </c>
+      <c r="K21" s="1">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P21">
+        <f>COUNTIF($O$1:O21,O21)</f>
+        <v>5</v>
+      </c>
+      <c r="R21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>90</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>89</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P22">
+        <f>COUNTIF($O$1:O22,O22)</f>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22">
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1">
+        <v>85</v>
+      </c>
+      <c r="I23" s="1">
+        <v>98</v>
+      </c>
+      <c r="J23" s="1">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="P23">
+        <f>COUNTIF($O$1:O23,O23)</f>
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1">
+        <v>72</v>
+      </c>
+      <c r="K24" s="1">
+        <v>53</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P24">
+        <f>COUNTIF($O$1:O24,O24)</f>
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <v>86</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1">
+        <v>95</v>
+      </c>
+      <c r="F25" s="1">
+        <v>48</v>
+      </c>
+      <c r="G25" s="1">
+        <v>72</v>
+      </c>
+      <c r="H25" s="1">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1">
+        <v>65</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="P25">
+        <f>COUNTIF($O$1:O25,O25)</f>
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <v>95</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1">
+        <v>89</v>
+      </c>
+      <c r="J26" s="1">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1">
+        <v>55</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P26">
+        <f>COUNTIF($O$1:O26,O26)</f>
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <v>75</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1">
+        <v>48</v>
+      </c>
+      <c r="J27" s="1">
+        <v>36</v>
+      </c>
+      <c r="K27" s="1">
+        <v>79</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P27">
+        <f>COUNTIF($O$1:O27,O27)</f>
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1">
+        <v>89</v>
+      </c>
+      <c r="J28" s="1">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1">
+        <v>74</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P28">
+        <f>COUNTIF($O$1:O28,O28)</f>
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1">
+        <v>90</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P29">
+        <f>COUNTIF($O$1:O29,O29)</f>
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P30">
+        <f>COUNTIF($O$1:O30,O30)</f>
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30">
+        <v>85</v>
+      </c>
+      <c r="T30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="P31">
+        <f>COUNTIF($O$1:O31,O31)</f>
+        <v>4</v>
+      </c>
+      <c r="R31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31">
+        <v>21</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P32">
+        <f>COUNTIF($O$1:O32,O32)</f>
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32">
+        <v>46</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P33">
+        <f>COUNTIF($O$1:O33,O33)</f>
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33">
+        <v>13</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P34">
+        <f>COUNTIF($O$1:O34,O34)</f>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34">
+        <v>69</v>
+      </c>
+      <c r="T34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P35">
+        <f>COUNTIF($O$1:O35,O35)</f>
+        <v>5</v>
+      </c>
+      <c r="R35" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35">
+        <v>49</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P36">
+        <f>COUNTIF($O$1:O36,O36)</f>
+        <v>2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36">
+        <v>32</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P37">
+        <f>COUNTIF($O$1:O37,O37)</f>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P38">
+        <f>COUNTIF($O$1:O38,O38)</f>
+        <v>7</v>
+      </c>
+      <c r="R38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38">
+        <v>61</v>
+      </c>
+      <c r="T38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P39">
+        <f>COUNTIF($O$1:O39,O39)</f>
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39">
+        <v>21</v>
+      </c>
+      <c r="T39" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P40">
+        <f>COUNTIF($O$1:O40,O40)</f>
+        <v>6</v>
+      </c>
+      <c r="R40" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40">
+        <v>11</v>
+      </c>
+      <c r="T40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P41">
+        <f>COUNTIF($O$1:O41,O41)</f>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P42">
+        <f>COUNTIF($O$1:O42,O42)</f>
+        <v>5</v>
+      </c>
+      <c r="R42" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42">
+        <v>74</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P43">
+        <f>COUNTIF($O$1:O43,O43)</f>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43">
+        <v>69</v>
+      </c>
+      <c r="T43" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P44">
+        <f>COUNTIF($O$1:O44,O44)</f>
+        <v>6</v>
+      </c>
+      <c r="R44" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44">
+        <v>62</v>
+      </c>
+      <c r="T44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44">
+        <v>7</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>9</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P45">
+        <f>COUNTIF($O$1:O45,O45)</f>
+        <v>7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P46">
+        <f>COUNTIF($O$1:O46,O46)</f>
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46">
+        <v>99</v>
+      </c>
+      <c r="T46" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P47">
+        <f>COUNTIF($O$1:O47,O47)</f>
+        <v>7</v>
+      </c>
+      <c r="R47" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47">
+        <v>47</v>
+      </c>
+      <c r="T47" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P48">
+        <f>COUNTIF($O$1:O48,O48)</f>
+        <v>2</v>
+      </c>
+      <c r="R48" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48">
+        <v>69</v>
+      </c>
+      <c r="T48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>8</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="0"/>
+        <v>J9</v>
+      </c>
+      <c r="P49">
+        <f>COUNTIF($O$1:O49,O49)</f>
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49">
+        <v>7</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P50">
+        <f>COUNTIF($O$1:O50,O50)</f>
+        <v>5</v>
+      </c>
+      <c r="R50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50">
+        <v>65</v>
+      </c>
+      <c r="T50" t="s">
+        <v>24</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P51">
+        <f>COUNTIF($O$1:O51,O51)</f>
+        <v>3</v>
+      </c>
+      <c r="R51" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51">
+        <v>91</v>
+      </c>
+      <c r="T51" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>9</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v>J10</v>
+      </c>
+      <c r="P52">
+        <f>COUNTIF($O$1:O52,O52)</f>
+        <v>8</v>
+      </c>
+      <c r="R52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52">
+        <v>6</v>
+      </c>
+      <c r="T52" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P53">
+        <f>COUNTIF($O$1:O53,O53)</f>
+        <v>8</v>
+      </c>
+      <c r="R53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P54">
+        <f>COUNTIF($O$1:O54,O54)</f>
+        <v>7</v>
+      </c>
+      <c r="R54" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54">
+        <v>85</v>
+      </c>
+      <c r="T54" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="0"/>
+        <v>J1</v>
+      </c>
+      <c r="P55">
+        <f>COUNTIF($O$1:O55,O55)</f>
+        <v>9</v>
+      </c>
+      <c r="R55" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55">
+        <v>28</v>
+      </c>
+      <c r="T55" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P56">
+        <f>COUNTIF($O$1:O56,O56)</f>
+        <v>4</v>
+      </c>
+      <c r="R56" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56">
+        <v>89</v>
+      </c>
+      <c r="T56" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P57">
+        <f>COUNTIF($O$1:O57,O57)</f>
+        <v>5</v>
+      </c>
+      <c r="R57" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57">
+        <v>46</v>
+      </c>
+      <c r="T57" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P58">
+        <f>COUNTIF($O$1:O58,O58)</f>
+        <v>6</v>
+      </c>
+      <c r="R58" t="s">
+        <v>23</v>
+      </c>
+      <c r="S58">
+        <v>52</v>
+      </c>
+      <c r="T58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P59">
+        <f>COUNTIF($O$1:O59,O59)</f>
+        <v>6</v>
+      </c>
+      <c r="R59" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59">
+        <v>51</v>
+      </c>
+      <c r="T59" t="s">
+        <v>24</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="0"/>
+        <v>J2</v>
+      </c>
+      <c r="P60">
+        <f>COUNTIF($O$1:O60,O60)</f>
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>23</v>
+      </c>
+      <c r="S60">
+        <v>32</v>
+      </c>
+      <c r="T60" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>7</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="0"/>
+        <v>J8</v>
+      </c>
+      <c r="P61">
+        <f>COUNTIF($O$1:O61,O61)</f>
+        <v>8</v>
+      </c>
+      <c r="R61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S61">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s">
+        <v>24</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v>J4</v>
+      </c>
+      <c r="P62">
+        <f>COUNTIF($O$1:O62,O62)</f>
+        <v>8</v>
+      </c>
+      <c r="R62" t="s">
+        <v>23</v>
+      </c>
+      <c r="S62">
+        <v>56</v>
+      </c>
+      <c r="T62" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>6</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="0"/>
+        <v>J7</v>
+      </c>
+      <c r="P63">
+        <f>COUNTIF($O$1:O63,O63)</f>
+        <v>7</v>
+      </c>
+      <c r="R63" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63">
+        <v>64</v>
+      </c>
+      <c r="T63" t="s">
+        <v>24</v>
+      </c>
+      <c r="U63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="0"/>
+        <v>J5</v>
+      </c>
+      <c r="P64">
+        <f>COUNTIF($O$1:O64,O64)</f>
+        <v>7</v>
+      </c>
+      <c r="R64" t="s">
+        <v>23</v>
+      </c>
+      <c r="S64">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s">
+        <v>24</v>
+      </c>
+      <c r="U64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="0"/>
+        <v>J6</v>
+      </c>
+      <c r="P65">
+        <f>COUNTIF($O$1:O65,O65)</f>
+        <v>6</v>
+      </c>
+      <c r="R65" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65">
+        <v>88</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+      <c r="U65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="0"/>
+        <v>J3</v>
+      </c>
+      <c r="P66">
+        <f>COUNTIF($O$1:O66,O66)</f>
+        <v>5</v>
+      </c>
+      <c r="R66" t="s">
+        <v>23</v>
+      </c>
+      <c r="S66">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O101" si="2">CONCATENATE("J",N67+1)</f>
+        <v>J6</v>
+      </c>
+      <c r="P67">
+        <f>COUNTIF($O$1:O67,O67)</f>
+        <v>7</v>
+      </c>
+      <c r="R67" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67">
+        <v>30</v>
+      </c>
+      <c r="T67" t="s">
+        <v>24</v>
+      </c>
+      <c r="U67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="2"/>
+        <v>J5</v>
+      </c>
+      <c r="P68">
+        <f>COUNTIF($O$1:O68,O68)</f>
+        <v>8</v>
+      </c>
+      <c r="R68" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68">
+        <v>46</v>
+      </c>
+      <c r="T68" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>8</v>
+      </c>
+      <c r="N69">
+        <v>8</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="2"/>
+        <v>J9</v>
+      </c>
+      <c r="P69">
+        <f>COUNTIF($O$1:O69,O69)</f>
+        <v>7</v>
+      </c>
+      <c r="R69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69">
+        <v>47</v>
+      </c>
+      <c r="T69" t="s">
+        <v>24</v>
+      </c>
+      <c r="U69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P70">
+        <f>COUNTIF($O$1:O70,O70)</f>
+        <v>2</v>
+      </c>
+      <c r="R70" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70">
+        <v>90</v>
+      </c>
+      <c r="T70" t="s">
+        <v>24</v>
+      </c>
+      <c r="U70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P71">
+        <f>COUNTIF($O$1:O71,O71)</f>
+        <v>3</v>
+      </c>
+      <c r="R71" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71">
+        <v>85</v>
+      </c>
+      <c r="T71" t="s">
+        <v>24</v>
+      </c>
+      <c r="U71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>9</v>
+      </c>
+      <c r="N72">
+        <v>9</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="2"/>
+        <v>J10</v>
+      </c>
+      <c r="P72">
+        <f>COUNTIF($O$1:O72,O72)</f>
+        <v>9</v>
+      </c>
+      <c r="R72" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72">
+        <v>72</v>
+      </c>
+      <c r="T72" t="s">
+        <v>24</v>
+      </c>
+      <c r="U72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P73">
+        <f>COUNTIF($O$1:O73,O73)</f>
+        <v>4</v>
+      </c>
+      <c r="R73" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73" t="s">
+        <v>24</v>
+      </c>
+      <c r="U73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>7</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="2"/>
+        <v>J8</v>
+      </c>
+      <c r="P74">
+        <f>COUNTIF($O$1:O74,O74)</f>
+        <v>9</v>
+      </c>
+      <c r="R74" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74">
+        <v>25</v>
+      </c>
+      <c r="T74" t="s">
+        <v>24</v>
+      </c>
+      <c r="U74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P75">
+        <f>COUNTIF($O$1:O75,O75)</f>
+        <v>5</v>
+      </c>
+      <c r="R75" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75">
+        <v>12</v>
+      </c>
+      <c r="T75" t="s">
+        <v>24</v>
+      </c>
+      <c r="U75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>7</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="2"/>
+        <v>J8</v>
+      </c>
+      <c r="P76">
+        <f>COUNTIF($O$1:O76,O76)</f>
+        <v>10</v>
+      </c>
+      <c r="R76" t="s">
+        <v>23</v>
+      </c>
+      <c r="S76">
+        <v>19</v>
+      </c>
+      <c r="T76" t="s">
+        <v>24</v>
+      </c>
+      <c r="U76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="2"/>
+        <v>J6</v>
+      </c>
+      <c r="P77">
+        <f>COUNTIF($O$1:O77,O77)</f>
+        <v>8</v>
+      </c>
+      <c r="R77" t="s">
+        <v>23</v>
+      </c>
+      <c r="S77">
+        <v>85</v>
+      </c>
+      <c r="T77" t="s">
+        <v>24</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="2"/>
+        <v>J5</v>
+      </c>
+      <c r="P78">
+        <f>COUNTIF($O$1:O78,O78)</f>
+        <v>9</v>
+      </c>
+      <c r="R78" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78" t="s">
+        <v>24</v>
+      </c>
+      <c r="U78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="2"/>
+        <v>J1</v>
+      </c>
+      <c r="P79">
+        <f>COUNTIF($O$1:O79,O79)</f>
+        <v>10</v>
+      </c>
+      <c r="R79" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79">
+        <v>55</v>
+      </c>
+      <c r="T79" t="s">
+        <v>24</v>
+      </c>
+      <c r="U79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="2"/>
+        <v>J7</v>
+      </c>
+      <c r="P80">
+        <f>COUNTIF($O$1:O80,O80)</f>
+        <v>8</v>
+      </c>
+      <c r="R80" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s">
+        <v>24</v>
+      </c>
+      <c r="U80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="2"/>
+        <v>J3</v>
+      </c>
+      <c r="P81">
+        <f>COUNTIF($O$1:O81,O81)</f>
+        <v>6</v>
+      </c>
+      <c r="R81" t="s">
+        <v>23</v>
+      </c>
+      <c r="S81">
+        <v>98</v>
+      </c>
+      <c r="T81" t="s">
+        <v>24</v>
+      </c>
+      <c r="U81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="2"/>
+        <v>J4</v>
+      </c>
+      <c r="P82">
+        <f>COUNTIF($O$1:O82,O82)</f>
+        <v>9</v>
+      </c>
+      <c r="R82" t="s">
+        <v>23</v>
+      </c>
+      <c r="S82">
+        <v>22</v>
+      </c>
+      <c r="T82" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P83">
+        <f>COUNTIF($O$1:O83,O83)</f>
+        <v>6</v>
+      </c>
+      <c r="R83" t="s">
+        <v>23</v>
+      </c>
+      <c r="S83">
+        <v>43</v>
+      </c>
+      <c r="T83" t="s">
+        <v>24</v>
+      </c>
+      <c r="U83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>8</v>
+      </c>
+      <c r="N84">
+        <v>8</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="2"/>
+        <v>J9</v>
+      </c>
+      <c r="P84">
+        <f>COUNTIF($O$1:O84,O84)</f>
+        <v>8</v>
+      </c>
+      <c r="R84" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84">
+        <v>52</v>
+      </c>
+      <c r="T84" t="s">
+        <v>24</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="2"/>
+        <v>J6</v>
+      </c>
+      <c r="P85">
+        <f>COUNTIF($O$1:O85,O85)</f>
+        <v>9</v>
+      </c>
+      <c r="R85" t="s">
+        <v>23</v>
+      </c>
+      <c r="S85">
+        <v>89</v>
+      </c>
+      <c r="T85" t="s">
+        <v>24</v>
+      </c>
+      <c r="U85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>9</v>
+      </c>
+      <c r="N86">
+        <v>9</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="2"/>
+        <v>J10</v>
+      </c>
+      <c r="P86">
+        <f>COUNTIF($O$1:O86,O86)</f>
+        <v>10</v>
+      </c>
+      <c r="R86" t="s">
+        <v>23</v>
+      </c>
+      <c r="S86">
+        <v>90</v>
+      </c>
+      <c r="T86" t="s">
+        <v>24</v>
+      </c>
+      <c r="U86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P87">
+        <f>COUNTIF($O$1:O87,O87)</f>
+        <v>7</v>
+      </c>
+      <c r="R87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87">
+        <v>48</v>
+      </c>
+      <c r="T87" t="s">
+        <v>24</v>
+      </c>
+      <c r="U87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>8</v>
+      </c>
+      <c r="N88">
+        <v>8</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="2"/>
+        <v>J9</v>
+      </c>
+      <c r="P88">
+        <f>COUNTIF($O$1:O88,O88)</f>
+        <v>9</v>
+      </c>
+      <c r="R88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S88">
+        <v>89</v>
+      </c>
+      <c r="T88" t="s">
+        <v>24</v>
+      </c>
+      <c r="U88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>6</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="2"/>
+        <v>J7</v>
+      </c>
+      <c r="P89">
+        <f>COUNTIF($O$1:O89,O89)</f>
+        <v>9</v>
+      </c>
+      <c r="R89" t="s">
+        <v>23</v>
+      </c>
+      <c r="S89">
+        <v>49</v>
+      </c>
+      <c r="T89" t="s">
+        <v>24</v>
+      </c>
+      <c r="U89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="2"/>
+        <v>J3</v>
+      </c>
+      <c r="P90">
+        <f>COUNTIF($O$1:O90,O90)</f>
+        <v>7</v>
+      </c>
+      <c r="R90" t="s">
+        <v>23</v>
+      </c>
+      <c r="S90">
+        <v>36</v>
+      </c>
+      <c r="T90" t="s">
+        <v>24</v>
+      </c>
+      <c r="U90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="2"/>
+        <v>J6</v>
+      </c>
+      <c r="P91">
+        <f>COUNTIF($O$1:O91,O91)</f>
+        <v>10</v>
+      </c>
+      <c r="R91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S91">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s">
+        <v>24</v>
+      </c>
+      <c r="U91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="2"/>
+        <v>J4</v>
+      </c>
+      <c r="P92">
+        <f>COUNTIF($O$1:O92,O92)</f>
+        <v>10</v>
+      </c>
+      <c r="R92" t="s">
+        <v>23</v>
+      </c>
+      <c r="S92">
+        <v>26</v>
+      </c>
+      <c r="T92" t="s">
+        <v>24</v>
+      </c>
+      <c r="U92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>6</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="2"/>
+        <v>J7</v>
+      </c>
+      <c r="P93">
+        <f>COUNTIF($O$1:O93,O93)</f>
+        <v>10</v>
+      </c>
+      <c r="R93" t="s">
+        <v>23</v>
+      </c>
+      <c r="S93">
+        <v>45</v>
+      </c>
+      <c r="T93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>8</v>
+      </c>
+      <c r="N94">
+        <v>8</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="2"/>
+        <v>J9</v>
+      </c>
+      <c r="P94">
+        <f>COUNTIF($O$1:O94,O94)</f>
+        <v>10</v>
+      </c>
+      <c r="R94" t="s">
+        <v>23</v>
+      </c>
+      <c r="S94">
+        <v>45</v>
+      </c>
+      <c r="T94" t="s">
+        <v>24</v>
+      </c>
+      <c r="U94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="2"/>
+        <v>J3</v>
+      </c>
+      <c r="P95">
+        <f>COUNTIF($O$1:O95,O95)</f>
+        <v>8</v>
+      </c>
+      <c r="R95" t="s">
+        <v>23</v>
+      </c>
+      <c r="S95">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s">
+        <v>24</v>
+      </c>
+      <c r="U95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="2"/>
+        <v>J3</v>
+      </c>
+      <c r="P96">
+        <f>COUNTIF($O$1:O96,O96)</f>
+        <v>9</v>
+      </c>
+      <c r="R96" t="s">
+        <v>23</v>
+      </c>
+      <c r="S96">
+        <v>72</v>
+      </c>
+      <c r="T96" t="s">
+        <v>24</v>
+      </c>
+      <c r="U96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P97">
+        <f>COUNTIF($O$1:O97,O97)</f>
+        <v>8</v>
+      </c>
+      <c r="R97" t="s">
+        <v>23</v>
+      </c>
+      <c r="S97">
+        <v>53</v>
+      </c>
+      <c r="T97" t="s">
+        <v>24</v>
+      </c>
+      <c r="U97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="2"/>
+        <v>J5</v>
+      </c>
+      <c r="P98">
+        <f>COUNTIF($O$1:O98,O98)</f>
+        <v>10</v>
+      </c>
+      <c r="R98" t="s">
+        <v>23</v>
+      </c>
+      <c r="S98">
+        <v>30</v>
+      </c>
+      <c r="T98" t="s">
+        <v>24</v>
+      </c>
+      <c r="U98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P99">
+        <f>COUNTIF($O$1:O99,O99)</f>
+        <v>9</v>
+      </c>
+      <c r="R99" t="s">
+        <v>23</v>
+      </c>
+      <c r="S99">
+        <v>33</v>
+      </c>
+      <c r="T99" t="s">
+        <v>24</v>
+      </c>
+      <c r="U99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="2"/>
+        <v>J2</v>
+      </c>
+      <c r="P100">
+        <f>COUNTIF($O$1:O100,O100)</f>
+        <v>10</v>
+      </c>
+      <c r="R100" t="s">
+        <v>23</v>
+      </c>
+      <c r="S100">
+        <v>21</v>
+      </c>
+      <c r="T100" t="s">
+        <v>24</v>
+      </c>
+      <c r="U100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="2"/>
+        <v>J3</v>
+      </c>
+      <c r="P101">
+        <f>COUNTIF($O$1:O101,O101)</f>
+        <v>10</v>
+      </c>
+      <c r="R101" t="s">
+        <v>23</v>
+      </c>
+      <c r="S101">
+        <v>74</v>
+      </c>
+      <c r="T101" t="s">
+        <v>24</v>
+      </c>
+      <c r="U101">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="O1:U101"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>